--- a/info/metricas/NN/RELU/NN4.xlsx
+++ b/info/metricas/NN/RELU/NN4.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -495,31 +495,31 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.7724320900548673</v>
+        <v>0.810823479396987</v>
       </c>
       <c r="C2" t="n">
-        <v>84763.32304465913</v>
+        <v>69168.36887820979</v>
       </c>
       <c r="D2" t="n">
-        <v>184.5704701753726</v>
+        <v>172.9371500365965</v>
       </c>
       <c r="E2" t="n">
-        <v>111.3594201660156</v>
+        <v>105.9596258544922</v>
       </c>
       <c r="F2" t="n">
-        <v>4691227.640447445</v>
+        <v>879212.4707860565</v>
       </c>
       <c r="G2" t="n">
-        <v>3043.31763671875</v>
+        <v>2044.87841796875</v>
       </c>
       <c r="H2" t="n">
-        <v>0.7724400529975755</v>
+        <v>0.8111402150664258</v>
       </c>
       <c r="I2" t="n">
-        <v>6.209342818785848e+16</v>
+        <v>6.428330492801856e+16</v>
       </c>
       <c r="J2" t="n">
-        <v>-698161.3076024681</v>
+        <v>-122667.2628085444</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
@@ -537,31 +537,31 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.7769423552535693</v>
+        <v>0.7638622652236053</v>
       </c>
       <c r="C3" t="n">
-        <v>82774.23835747206</v>
+        <v>84348.04748674193</v>
       </c>
       <c r="D3" t="n">
-        <v>184.4146160398436</v>
+        <v>182.3665689575794</v>
       </c>
       <c r="E3" t="n">
-        <v>114.8415075683594</v>
+        <v>112.7554363250733</v>
       </c>
       <c r="F3" t="n">
-        <v>4687266.295884704</v>
+        <v>927151.6365803338</v>
       </c>
       <c r="G3" t="n">
-        <v>3606.73013671875</v>
+        <v>3189.786865234375</v>
       </c>
       <c r="H3" t="n">
-        <v>0.7773809685527414</v>
+        <v>0.7638679328068285</v>
       </c>
       <c r="I3" t="n">
-        <v>5.242665647264098e+16</v>
+        <v>5.727345583797753e+16</v>
       </c>
       <c r="J3" t="n">
-        <v>-663244.7665554781</v>
+        <v>-139704.6480532102</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -569,6 +569,342 @@
         </is>
       </c>
       <c r="L3" t="inlineStr">
+        <is>
+          <t>RELU4</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.7693101319326704</v>
+      </c>
+      <c r="C4" t="n">
+        <v>87567.66339641537</v>
+      </c>
+      <c r="D4" t="n">
+        <v>186.773297320125</v>
+      </c>
+      <c r="E4" t="n">
+        <v>115.9656524658203</v>
+      </c>
+      <c r="F4" t="n">
+        <v>949555.4435755158</v>
+      </c>
+      <c r="G4" t="n">
+        <v>2911.333720703125</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.7694079219059471</v>
+      </c>
+      <c r="I4" t="n">
+        <v>7.287738511470493e+16</v>
+      </c>
+      <c r="J4" t="n">
+        <v>-142789.7885973484</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>RELU4</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.7826063609257052</v>
+      </c>
+      <c r="C5" t="n">
+        <v>84439.44283699554</v>
+      </c>
+      <c r="D5" t="n">
+        <v>185.9795944981909</v>
+      </c>
+      <c r="E5" t="n">
+        <v>109.4455059814453</v>
+      </c>
+      <c r="F5" t="n">
+        <v>945520.2584288025</v>
+      </c>
+      <c r="G5" t="n">
+        <v>3165.959091796875</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.7826469519060404</v>
+      </c>
+      <c r="I5" t="n">
+        <v>6.874431225006588e+16</v>
+      </c>
+      <c r="J5" t="n">
+        <v>-145661.1713201651</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>RELU4</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.7947676029991466</v>
+      </c>
+      <c r="C6" t="n">
+        <v>76500.94870521387</v>
+      </c>
+      <c r="D6" t="n">
+        <v>180.371600253165</v>
+      </c>
+      <c r="E6" t="n">
+        <v>110.6646704101563</v>
+      </c>
+      <c r="F6" t="n">
+        <v>916828.8440868378</v>
+      </c>
+      <c r="G6" t="n">
+        <v>2114.557275390625</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.7947794119074489</v>
+      </c>
+      <c r="I6" t="n">
+        <v>5.253745807533463e+16</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-142133.957573579</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>RELU4</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.80065194652159</v>
+      </c>
+      <c r="C7" t="n">
+        <v>75294.74164640605</v>
+      </c>
+      <c r="D7" t="n">
+        <v>180.4755859536654</v>
+      </c>
+      <c r="E7" t="n">
+        <v>109.4176489257812</v>
+      </c>
+      <c r="F7" t="n">
+        <v>917357.403402481</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1838.668090820312</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.8008570864059379</v>
+      </c>
+      <c r="I7" t="n">
+        <v>5.303091190144051e+16</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-134344.8974266917</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>RELU4</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.7649276353254546</v>
+      </c>
+      <c r="C8" t="n">
+        <v>88978.72805168587</v>
+      </c>
+      <c r="D8" t="n">
+        <v>192.1733027368246</v>
+      </c>
+      <c r="E8" t="n">
+        <v>117.3158941650391</v>
+      </c>
+      <c r="F8" t="n">
+        <v>976816.8978112793</v>
+      </c>
+      <c r="G8" t="n">
+        <v>2617.491298828125</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.7649649023409966</v>
+      </c>
+      <c r="I8" t="n">
+        <v>6.53617298078129e+16</v>
+      </c>
+      <c r="J8" t="n">
+        <v>-140940.7922811034</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>RELU4</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.8066101644133421</v>
+      </c>
+      <c r="C9" t="n">
+        <v>72409.41055663777</v>
+      </c>
+      <c r="D9" t="n">
+        <v>176.9548018192949</v>
+      </c>
+      <c r="E9" t="n">
+        <v>95.61960937499998</v>
+      </c>
+      <c r="F9" t="n">
+        <v>899461.2576474762</v>
+      </c>
+      <c r="G9" t="n">
+        <v>2102.67984375</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.8066692329133832</v>
+      </c>
+      <c r="I9" t="n">
+        <v>7.773827751787053e+16</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-105869.5344508399</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>RELU4</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.7990298727670295</v>
+      </c>
+      <c r="C10" t="n">
+        <v>71377.48234915608</v>
+      </c>
+      <c r="D10" t="n">
+        <v>175.6095252075135</v>
+      </c>
+      <c r="E10" t="n">
+        <v>107.0584944915772</v>
+      </c>
+      <c r="F10" t="n">
+        <v>892623.2166297913</v>
+      </c>
+      <c r="G10" t="n">
+        <v>2170.123291015625</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.7990553163419595</v>
+      </c>
+      <c r="I10" t="n">
+        <v>6.653674809290838e+16</v>
+      </c>
+      <c r="J10" t="n">
+        <v>-109444.0899846657</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>RELU4</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.7828236369642669</v>
+      </c>
+      <c r="C11" t="n">
+        <v>79888.80222802701</v>
+      </c>
+      <c r="D11" t="n">
+        <v>182.4736346005296</v>
+      </c>
+      <c r="E11" t="n">
+        <v>110.0141143798828</v>
+      </c>
+      <c r="F11" t="n">
+        <v>927513.4846744919</v>
+      </c>
+      <c r="G11" t="n">
+        <v>2171.03662109375</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.7828598389775141</v>
+      </c>
+      <c r="I11" t="n">
+        <v>8.267950670340648e+16</v>
+      </c>
+      <c r="J11" t="n">
+        <v>-118013.607789668</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
         <is>
           <t>RELU4</t>
         </is>
